--- a/pa-temp-fix-system.com/php/export/sp/supplement_adgroup_with_asin_ads_v1.xlsx
+++ b/pa-temp-fix-system.com/php/export/sp/supplement_adgroup_with_asin_ads_v1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
